--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3800144.315365871</v>
+        <v>-3800791.287907055</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778175</v>
+        <v>12279284.88778174</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681858</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="D11" t="n">
-        <v>68.39702598806996</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>68.39702598806996</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>57.67900616287447</v>
       </c>
       <c r="H11" t="n">
-        <v>24.68690330538627</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417497</v>
+        <v>2.56509432741747</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748833</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>68.39702598806996</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.19147272308791</v>
+        <v>6.191472723087881</v>
       </c>
       <c r="V12" t="n">
-        <v>13.458707079644</v>
+        <v>13.45870707964397</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998892</v>
+        <v>31.53932278998889</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644363141</v>
+        <v>0.4251038644362888</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938222</v>
+        <v>9.028675106938195</v>
       </c>
       <c r="U13" t="n">
-        <v>67.59134727882468</v>
+        <v>67.59134727882466</v>
       </c>
       <c r="V13" t="n">
-        <v>34.48632710692803</v>
+        <v>34.486327106928</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740441</v>
+        <v>67.64255292740438</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298129</v>
+        <v>7.690335972298101</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2986499077570954</v>
+        <v>0.298649907757067</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>68.39702598806996</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>24.68690330538615</v>
       </c>
       <c r="G14" t="n">
-        <v>68.39702598806996</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417468</v>
+        <v>2.56509432741747</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>32.99210285748831</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>57.6790061628746</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>68.39702598806996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362857</v>
+        <v>0.4251038644362888</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938193</v>
+        <v>9.028675106938195</v>
       </c>
       <c r="U16" t="n">
         <v>67.59134727882466</v>
@@ -1856,7 +1856,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521424</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>33.18629299084046</v>
       </c>
       <c r="C20" t="n">
-        <v>16.45497867838804</v>
+        <v>16.45497867838803</v>
       </c>
       <c r="D20" t="n">
         <v>6.074615754043805</v>
@@ -2567,7 +2567,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H26" t="n">
         <v>112.566723118609</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.42700853007082</v>
+        <v>30.42700853007085</v>
       </c>
       <c r="V26" t="n">
         <v>107.5181032350907</v>
       </c>
       <c r="W26" t="n">
-        <v>129.5149987131259</v>
+        <v>129.514998713126</v>
       </c>
       <c r="X26" t="n">
-        <v>149.8464808437407</v>
+        <v>149.8464808437408</v>
       </c>
       <c r="Y26" t="n">
         <v>165.6719534638072</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3.626378395670398</v>
+        <v>3.626378395670427</v>
       </c>
       <c r="V27" t="n">
-        <v>10.89361275222649</v>
+        <v>10.89361275222652</v>
       </c>
       <c r="W27" t="n">
-        <v>28.9742284625714</v>
+        <v>28.97422846257143</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.46358077952071</v>
+        <v>6.463580779520739</v>
       </c>
       <c r="U28" t="n">
-        <v>65.02625295140717</v>
+        <v>65.0262529514072</v>
       </c>
       <c r="V28" t="n">
-        <v>31.92123277951052</v>
+        <v>31.92123277951055</v>
       </c>
       <c r="W28" t="n">
-        <v>65.0774585999869</v>
+        <v>65.07745859998693</v>
       </c>
       <c r="X28" t="n">
-        <v>5.125241644880617</v>
+        <v>5.125241644880646</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520738</v>
+        <v>6.463580779520739</v>
       </c>
       <c r="U31" t="n">
         <v>65.0262529514072</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520766</v>
+        <v>6.463580779520767</v>
       </c>
       <c r="U34" t="n">
         <v>65.02625295140723</v>
@@ -3278,10 +3278,10 @@
         <v>164.1591469885704</v>
       </c>
       <c r="G35" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H35" t="n">
-        <v>90.44712491406725</v>
+        <v>90.44712491406722</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325529048</v>
+        <v>8.30741032552902</v>
       </c>
       <c r="V35" t="n">
-        <v>85.39850503054893</v>
+        <v>85.3985050305489</v>
       </c>
       <c r="W35" t="n">
-        <v>107.3954005085842</v>
+        <v>107.3954005085841</v>
       </c>
       <c r="X35" t="n">
-        <v>127.726882639199</v>
+        <v>127.7268826391989</v>
       </c>
       <c r="Y35" t="n">
         <v>143.5523552592654</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.85463025802963</v>
+        <v>6.854630258029601</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>42.9066547468654</v>
+        <v>42.90665474686537</v>
       </c>
       <c r="V37" t="n">
-        <v>9.801634574968745</v>
+        <v>9.801634574968716</v>
       </c>
       <c r="W37" t="n">
-        <v>42.95786039544512</v>
+        <v>42.9578603954451</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>164.1591469885704</v>
       </c>
       <c r="G38" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H38" t="n">
-        <v>90.44712491406725</v>
+        <v>90.44712491406722</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325529048</v>
+        <v>8.307410325529016</v>
       </c>
       <c r="V38" t="n">
-        <v>85.39850503054893</v>
+        <v>85.3985050305489</v>
       </c>
       <c r="W38" t="n">
-        <v>107.3954005085842</v>
+        <v>107.3954005085841</v>
       </c>
       <c r="X38" t="n">
-        <v>127.726882639199</v>
+        <v>127.7268826391989</v>
       </c>
       <c r="Y38" t="n">
         <v>143.5523552592654</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.85463025802963</v>
+        <v>6.854630258029601</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>42.9066547468654</v>
+        <v>42.90665474686537</v>
       </c>
       <c r="V40" t="n">
-        <v>9.801634574968745</v>
+        <v>9.801634574968716</v>
       </c>
       <c r="W40" t="n">
-        <v>42.95786039544512</v>
+        <v>42.9578603954451</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>123.8503791869722</v>
       </c>
       <c r="D41" t="n">
-        <v>113.470016262628</v>
+        <v>113.4700162626279</v>
       </c>
       <c r="E41" t="n">
         <v>139.983319263317</v>
@@ -3752,10 +3752,10 @@
         <v>164.1591469885704</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H41" t="n">
-        <v>90.44712491406725</v>
+        <v>90.44712491406719</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.307410325529048</v>
+        <v>8.307410325528991</v>
       </c>
       <c r="V41" t="n">
-        <v>85.39850503054893</v>
+        <v>85.39850503054888</v>
       </c>
       <c r="W41" t="n">
-        <v>107.3954005085842</v>
+        <v>107.3954005085841</v>
       </c>
       <c r="X41" t="n">
-        <v>127.726882639199</v>
+        <v>127.7268826391989</v>
       </c>
       <c r="Y41" t="n">
-        <v>143.5523552592654</v>
+        <v>143.5523552592653</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>6.85463025802963</v>
+        <v>6.854630258029573</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>42.9066547468654</v>
+        <v>42.90665474686534</v>
       </c>
       <c r="V43" t="n">
-        <v>9.801634574968745</v>
+        <v>9.801634574968688</v>
       </c>
       <c r="W43" t="n">
-        <v>42.95786039544512</v>
+        <v>42.95786039544507</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>123.8503791869722</v>
       </c>
       <c r="D44" t="n">
-        <v>113.470016262628</v>
+        <v>113.4700162626279</v>
       </c>
       <c r="E44" t="n">
         <v>139.983319263317</v>
@@ -3992,7 +3992,7 @@
         <v>171.2745894237984</v>
       </c>
       <c r="H44" t="n">
-        <v>90.44712491406725</v>
+        <v>90.44712491406719</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.307410325529045</v>
+        <v>8.307410325528988</v>
       </c>
       <c r="V44" t="n">
-        <v>85.39850503054893</v>
+        <v>85.39850503054888</v>
       </c>
       <c r="W44" t="n">
-        <v>107.3954005085842</v>
+        <v>107.3954005085841</v>
       </c>
       <c r="X44" t="n">
-        <v>127.726882639199</v>
+        <v>127.7268826391989</v>
       </c>
       <c r="Y44" t="n">
-        <v>143.5523552592654</v>
+        <v>143.5523552592653</v>
       </c>
     </row>
     <row r="45">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>6.85463025802963</v>
+        <v>6.854630258029573</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>42.9066547468654</v>
+        <v>42.90665474686534</v>
       </c>
       <c r="V46" t="n">
-        <v>9.801634574968745</v>
+        <v>9.801634574968688</v>
       </c>
       <c r="W46" t="n">
-        <v>42.95786039544512</v>
+        <v>42.95786039544507</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.5838381209911</v>
+        <v>270.9970995811511</v>
       </c>
       <c r="C11" t="n">
-        <v>168.5838381209911</v>
+        <v>201.9091945426966</v>
       </c>
       <c r="D11" t="n">
-        <v>99.49593308253675</v>
+        <v>132.821289504242</v>
       </c>
       <c r="E11" t="n">
-        <v>99.49593308253675</v>
+        <v>132.821289504242</v>
       </c>
       <c r="F11" t="n">
-        <v>30.40802804408223</v>
+        <v>132.821289504242</v>
       </c>
       <c r="G11" t="n">
-        <v>30.40802804408223</v>
+        <v>74.55966711750013</v>
       </c>
       <c r="H11" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439184</v>
+        <v>35.56706215439186</v>
       </c>
       <c r="J11" t="n">
-        <v>35.56706215439184</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="K11" t="n">
-        <v>95.48833333466575</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="L11" t="n">
-        <v>153.7742046860289</v>
+        <v>161.5659892339442</v>
       </c>
       <c r="M11" t="n">
-        <v>153.7742046860289</v>
+        <v>165.8971027405234</v>
       </c>
       <c r="N11" t="n">
-        <v>215.2056264681707</v>
+        <v>165.8971027405234</v>
       </c>
       <c r="O11" t="n">
-        <v>215.2056264681707</v>
+        <v>165.8971027405234</v>
       </c>
       <c r="P11" t="n">
-        <v>215.2056264681707</v>
+        <v>165.8971027405234</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.2056264681707</v>
+        <v>215.2056264681708</v>
       </c>
       <c r="R11" t="n">
         <v>251.0794834348003</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522798</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="T11" t="n">
-        <v>270.997099581151</v>
+        <v>270.9970995811511</v>
       </c>
       <c r="U11" t="n">
-        <v>237.6717431594456</v>
+        <v>270.9970995811511</v>
       </c>
       <c r="V11" t="n">
-        <v>237.6717431594456</v>
+        <v>270.9970995811511</v>
       </c>
       <c r="W11" t="n">
-        <v>237.6717431594456</v>
+        <v>270.9970995811511</v>
       </c>
       <c r="X11" t="n">
-        <v>168.5838381209911</v>
+        <v>270.9970995811511</v>
       </c>
       <c r="Y11" t="n">
-        <v>168.5838381209911</v>
+        <v>270.9970995811511</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="C12" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="D12" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="E12" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="F12" t="n">
-        <v>5.471762079045597</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="G12" t="n">
-        <v>5.471762079045597</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="H12" t="n">
-        <v>5.471762079045597</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="I12" t="n">
-        <v>5.471762079045597</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="J12" t="n">
-        <v>5.471762079045597</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="K12" t="n">
-        <v>5.471762079045597</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="L12" t="n">
-        <v>5.471762079045597</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="M12" t="n">
-        <v>57.17833035452118</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="N12" t="n">
-        <v>57.17833035452118</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="O12" t="n">
-        <v>57.17833035452118</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="P12" t="n">
-        <v>57.17833035452118</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.17833035452118</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="R12" t="n">
-        <v>57.17833035452118</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="S12" t="n">
-        <v>57.17833035452118</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="T12" t="n">
-        <v>57.17833035452118</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291723</v>
+        <v>50.92431750291718</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711521</v>
+        <v>37.32966388711518</v>
       </c>
       <c r="W12" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="X12" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045598</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.45443122367964</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="C13" t="n">
-        <v>94.05676754220033</v>
+        <v>5.596201392238697</v>
       </c>
       <c r="D13" t="n">
-        <v>94.05676754220033</v>
+        <v>5.596201392238697</v>
       </c>
       <c r="E13" t="n">
-        <v>94.05676754220033</v>
+        <v>5.596201392238697</v>
       </c>
       <c r="F13" t="n">
-        <v>94.05676754220033</v>
+        <v>5.596201392238697</v>
       </c>
       <c r="G13" t="n">
-        <v>94.05676754220033</v>
+        <v>5.596201392238697</v>
       </c>
       <c r="H13" t="n">
-        <v>152.0633561688812</v>
+        <v>5.596201392238697</v>
       </c>
       <c r="I13" t="n">
-        <v>152.0633561688812</v>
+        <v>73.30925712042797</v>
       </c>
       <c r="J13" t="n">
-        <v>194.5252895180222</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="K13" t="n">
-        <v>194.5252895180222</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="L13" t="n">
-        <v>194.5252895180222</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="M13" t="n">
-        <v>194.5252895180222</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="N13" t="n">
-        <v>194.5252895180222</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="O13" t="n">
-        <v>194.5252895180222</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5252895180222</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.5252895180222</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="R13" t="n">
-        <v>194.5252895180222</v>
+        <v>194.525289518022</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751572</v>
+        <v>194.0958916751571</v>
       </c>
       <c r="T13" t="n">
-        <v>184.9760178297651</v>
+        <v>184.976017829765</v>
       </c>
       <c r="U13" t="n">
-        <v>116.7019296693362</v>
+        <v>116.7019296693361</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395431</v>
+        <v>81.86725582395424</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617209</v>
+        <v>13.54144478617203</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537612</v>
+        <v>5.773428652537585</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045598</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.6475721559546</v>
+        <v>237.6717431594455</v>
       </c>
       <c r="C14" t="n">
-        <v>74.55966711750011</v>
+        <v>237.6717431594455</v>
       </c>
       <c r="D14" t="n">
-        <v>74.55966711750011</v>
+        <v>168.583838120991</v>
       </c>
       <c r="E14" t="n">
-        <v>74.55966711750011</v>
+        <v>168.583838120991</v>
       </c>
       <c r="F14" t="n">
-        <v>74.55966711750011</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="G14" t="n">
-        <v>5.471762079045597</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="H14" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I14" t="n">
-        <v>35.56706215439186</v>
+        <v>35.56706215439185</v>
       </c>
       <c r="J14" t="n">
-        <v>64.20773806656692</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="K14" t="n">
-        <v>64.20773806656692</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="L14" t="n">
-        <v>64.20773806656692</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="M14" t="n">
-        <v>64.20773806656692</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="N14" t="n">
-        <v>64.20773806656692</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="O14" t="n">
-        <v>131.9207937947562</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="P14" t="n">
-        <v>188.4057232580029</v>
+        <v>159.7650473458277</v>
       </c>
       <c r="Q14" t="n">
-        <v>237.7142469856503</v>
+        <v>215.2056264681705</v>
       </c>
       <c r="R14" t="n">
-        <v>273.5881039522798</v>
+        <v>251.0794834348001</v>
       </c>
       <c r="S14" t="n">
-        <v>273.5881039522798</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>270.997099581151</v>
+        <v>270.9970995811508</v>
       </c>
       <c r="U14" t="n">
-        <v>270.997099581151</v>
+        <v>237.6717431594455</v>
       </c>
       <c r="V14" t="n">
-        <v>270.997099581151</v>
+        <v>237.6717431594455</v>
       </c>
       <c r="W14" t="n">
-        <v>270.997099581151</v>
+        <v>237.6717431594455</v>
       </c>
       <c r="X14" t="n">
-        <v>212.7354771944091</v>
+        <v>237.6717431594455</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.6475721559546</v>
+        <v>237.6717431594455</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C15" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D15" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E15" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F15" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G15" t="n">
-        <v>57.17833035452109</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H15" t="n">
-        <v>57.17833035452109</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I15" t="n">
-        <v>57.17833035452109</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J15" t="n">
-        <v>57.17833035452109</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K15" t="n">
-        <v>57.17833035452109</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L15" t="n">
-        <v>57.17833035452109</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M15" t="n">
-        <v>57.17833035452109</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N15" t="n">
         <v>57.17833035452109</v>
@@ -5388,19 +5388,19 @@
         <v>57.17833035452109</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291718</v>
+        <v>50.92431750291717</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711518</v>
+        <v>37.32966388711517</v>
       </c>
       <c r="W15" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X15" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.45443122367967</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C16" t="n">
-        <v>43.45443122367967</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D16" t="n">
-        <v>43.45443122367967</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E16" t="n">
-        <v>43.45443122367967</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F16" t="n">
-        <v>43.45443122367967</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G16" t="n">
-        <v>43.45443122367967</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H16" t="n">
-        <v>43.45443122367967</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I16" t="n">
-        <v>43.45443122367967</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J16" t="n">
-        <v>59.09917806164353</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K16" t="n">
-        <v>126.8122337898328</v>
+        <v>13.82813876242615</v>
       </c>
       <c r="L16" t="n">
-        <v>126.8122337898328</v>
+        <v>81.54119449061537</v>
       </c>
       <c r="M16" t="n">
-        <v>194.525289518022</v>
+        <v>81.54119449061537</v>
       </c>
       <c r="N16" t="n">
-        <v>194.525289518022</v>
+        <v>132.3418604585584</v>
       </c>
       <c r="O16" t="n">
         <v>194.525289518022</v>
@@ -5476,10 +5476,10 @@
         <v>13.54144478617203</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537584</v>
+        <v>5.77342865253758</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.471762079045597</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>183.0075687278994</v>
       </c>
       <c r="C17" t="n">
-        <v>166.386378143669</v>
+        <v>166.3863781436691</v>
       </c>
       <c r="D17" t="n">
         <v>160.2504026345339</v>
@@ -5501,49 +5501,49 @@
         <v>127.3333129832886</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99619532673677</v>
+        <v>69.99619532673682</v>
       </c>
       <c r="G17" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H17" t="n">
         <v>22.25055491761735</v>
       </c>
       <c r="I17" t="n">
-        <v>89.96361064580657</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="J17" t="n">
-        <v>116.3850659726463</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="K17" t="n">
-        <v>116.3850659726463</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="L17" t="n">
-        <v>116.3850659726463</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="M17" t="n">
-        <v>116.3850659726463</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="N17" t="n">
-        <v>116.3850659726463</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="O17" t="n">
-        <v>116.3850659726463</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="P17" t="n">
-        <v>116.3850659726463</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.3850659726463</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="R17" t="n">
-        <v>116.3850659726463</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="S17" t="n">
-        <v>116.3850659726463</v>
+        <v>157.6766663739958</v>
       </c>
       <c r="T17" t="n">
-        <v>184.0981217008355</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="U17" t="n">
         <v>251.8111774290248</v>
@@ -5555,10 +5555,10 @@
         <v>273.5881039522797</v>
       </c>
       <c r="X17" t="n">
-        <v>253.051253315295</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994554</v>
+        <v>216.5290767994555</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="C19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="D19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="E19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="F19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="G19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="H19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="I19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="J19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="K19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="L19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="M19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="N19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="O19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="P19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="R19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.471762079045593</v>
+        <v>273.5881039522797</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>183.0075687278994</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3863781436691</v>
+        <v>166.386378143669</v>
       </c>
       <c r="D20" t="n">
         <v>160.2504026345339</v>
       </c>
       <c r="E20" t="n">
-        <v>127.3333129832886</v>
+        <v>127.3333129832885</v>
       </c>
       <c r="F20" t="n">
-        <v>69.99619532673682</v>
+        <v>69.99619532673674</v>
       </c>
       <c r="G20" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H20" t="n">
         <v>22.25055491761735</v>
@@ -5756,34 +5756,34 @@
         <v>22.25055491761735</v>
       </c>
       <c r="L20" t="n">
-        <v>70.44893676771201</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="M20" t="n">
-        <v>70.44893676771201</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="N20" t="n">
-        <v>70.44893676771201</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="O20" t="n">
-        <v>70.44893676771201</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="P20" t="n">
-        <v>70.44893676771201</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.1619924959012</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="R20" t="n">
-        <v>138.1619924959012</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="S20" t="n">
-        <v>138.1619924959012</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="T20" t="n">
-        <v>205.8750482240905</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="U20" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V20" t="n">
         <v>273.5881039522797</v>
@@ -5792,10 +5792,10 @@
         <v>273.5881039522797</v>
       </c>
       <c r="X20" t="n">
-        <v>253.0512533152951</v>
+        <v>253.051253315295</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994555</v>
+        <v>216.5290767994554</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="23">
@@ -5978,43 +5978,43 @@
         <v>69.99619532673677</v>
       </c>
       <c r="G23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.471762079045594</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="R23" t="n">
-        <v>48.67201024445711</v>
+        <v>140.897873535424</v>
       </c>
       <c r="S23" t="n">
-        <v>116.3850659726463</v>
+        <v>140.897873535424</v>
       </c>
       <c r="T23" t="n">
         <v>184.0981217008356</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>980.0203689923731</v>
+        <v>980.0203689923727</v>
       </c>
       <c r="C26" t="n">
-        <v>832.5759473847835</v>
+        <v>832.5759473847828</v>
       </c>
       <c r="D26" t="n">
-        <v>695.6167408522888</v>
+        <v>695.6167408522881</v>
       </c>
       <c r="E26" t="n">
-        <v>531.8764201776839</v>
+        <v>531.8764201776831</v>
       </c>
       <c r="F26" t="n">
-        <v>343.7160714977726</v>
+        <v>343.7160714977718</v>
       </c>
       <c r="G26" t="n">
         <v>148.3684072267213</v>
@@ -6221,28 +6221,28 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>67.29938996034313</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="J26" t="n">
-        <v>148.779536773173</v>
+        <v>148.7795367731729</v>
       </c>
       <c r="K26" t="n">
-        <v>276.7039261190128</v>
+        <v>544.9803681208614</v>
       </c>
       <c r="L26" t="n">
-        <v>688.9659610565678</v>
+        <v>605.8056828563678</v>
       </c>
       <c r="M26" t="n">
-        <v>1117.940961504631</v>
+        <v>679.7055487881449</v>
       </c>
       <c r="N26" t="n">
-        <v>1546.915961952693</v>
+        <v>957.5205075135283</v>
       </c>
       <c r="O26" t="n">
-        <v>1617.922993678491</v>
+        <v>1279.422638009534</v>
       </c>
       <c r="P26" t="n">
-        <v>1617.922993678491</v>
+        <v>1669.770960790282</v>
       </c>
       <c r="Q26" t="n">
         <v>1669.770960790282</v>
@@ -6266,10 +6266,10 @@
         <v>1463.070597286832</v>
       </c>
       <c r="X26" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y26" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="27">
@@ -6285,61 +6285,61 @@
         <v>34.66464650085356</v>
       </c>
       <c r="D27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="E27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="F27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="G27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="H27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="I27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="K27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="L27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="M27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="N27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="O27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="P27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="R27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="S27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="T27" t="n">
-        <v>78.59820166294276</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="U27" t="n">
-        <v>74.9351931824676</v>
+        <v>74.93519318246766</v>
       </c>
       <c r="V27" t="n">
-        <v>63.93154393779437</v>
+        <v>63.9315439377944</v>
       </c>
       <c r="W27" t="n">
         <v>34.66464650085356</v>
@@ -6361,67 +6361,67 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C28" t="n">
-        <v>34.66464650085356</v>
+        <v>76.18596648391805</v>
       </c>
       <c r="D28" t="n">
-        <v>34.66464650085356</v>
+        <v>76.18596648391805</v>
       </c>
       <c r="E28" t="n">
-        <v>34.66464650085356</v>
+        <v>149.4860556570052</v>
       </c>
       <c r="F28" t="n">
-        <v>34.66464650085356</v>
+        <v>149.4860556570052</v>
       </c>
       <c r="G28" t="n">
-        <v>34.66464650085356</v>
+        <v>149.4860556570052</v>
       </c>
       <c r="H28" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="I28" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="J28" t="n">
-        <v>144.87312969628</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="K28" t="n">
-        <v>144.87312969628</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="L28" t="n">
-        <v>144.87312969628</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="M28" t="n">
-        <v>144.87312969628</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="N28" t="n">
-        <v>144.87312969628</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="O28" t="n">
-        <v>144.87312969628</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="P28" t="n">
-        <v>210.0320876678292</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="Q28" t="n">
-        <v>210.0320876678292</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="R28" t="n">
-        <v>210.0320876678292</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="S28" t="n">
-        <v>210.0320876678292</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="T28" t="n">
-        <v>203.5032181935659</v>
+        <v>203.503218193566</v>
       </c>
       <c r="U28" t="n">
-        <v>137.8201344042657</v>
+        <v>137.8201344042658</v>
       </c>
       <c r="V28" t="n">
         <v>105.5764649300127</v>
       </c>
       <c r="W28" t="n">
-        <v>39.84165826335923</v>
+        <v>39.84165826335926</v>
       </c>
       <c r="X28" t="n">
         <v>34.66464650085356</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923732</v>
       </c>
       <c r="C29" t="n">
         <v>832.5759473847833</v>
@@ -6458,31 +6458,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>67.29938996034311</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="J29" t="n">
-        <v>148.7795367731729</v>
+        <v>322.88141175434</v>
       </c>
       <c r="K29" t="n">
-        <v>544.9803681208614</v>
+        <v>719.0822431020284</v>
       </c>
       <c r="L29" t="n">
-        <v>973.9553685689242</v>
+        <v>719.0822431020284</v>
       </c>
       <c r="M29" t="n">
-        <v>973.9553685689242</v>
+        <v>840.3170742738035</v>
       </c>
       <c r="N29" t="n">
-        <v>1050.008981639469</v>
+        <v>1269.292074721866</v>
       </c>
       <c r="O29" t="n">
-        <v>1159.913044996521</v>
+        <v>1340.299106447664</v>
       </c>
       <c r="P29" t="n">
-        <v>1550.261367777269</v>
+        <v>1399.323479295054</v>
       </c>
       <c r="Q29" t="n">
-        <v>1602.10933488906</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R29" t="n">
         <v>1708.184261141055</v>
@@ -6497,16 +6497,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V29" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W29" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y29" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="30">
@@ -6519,7 +6519,7 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D30" t="n">
         <v>78.59820166294284</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C31" t="n">
-        <v>75.18675902963091</v>
+        <v>68.11053466539293</v>
       </c>
       <c r="D31" t="n">
-        <v>75.18675902963091</v>
+        <v>68.11053466539293</v>
       </c>
       <c r="E31" t="n">
-        <v>75.18675902963091</v>
+        <v>68.11053466539293</v>
       </c>
       <c r="F31" t="n">
-        <v>75.18675902963091</v>
+        <v>68.11053466539293</v>
       </c>
       <c r="G31" t="n">
-        <v>75.18675902963091</v>
+        <v>120.9026283420858</v>
       </c>
       <c r="H31" t="n">
-        <v>135.7327910404551</v>
+        <v>120.9026283420858</v>
       </c>
       <c r="I31" t="n">
-        <v>208.2657720848874</v>
+        <v>120.9026283420858</v>
       </c>
       <c r="J31" t="n">
-        <v>208.2657720848874</v>
+        <v>120.9026283420858</v>
       </c>
       <c r="K31" t="n">
-        <v>208.2657720848874</v>
+        <v>120.9026283420858</v>
       </c>
       <c r="L31" t="n">
-        <v>208.2657720848874</v>
+        <v>120.9026283420858</v>
       </c>
       <c r="M31" t="n">
-        <v>208.2657720848874</v>
+        <v>120.9026283420858</v>
       </c>
       <c r="N31" t="n">
-        <v>208.2657720848874</v>
+        <v>120.9026283420858</v>
       </c>
       <c r="O31" t="n">
-        <v>208.2657720848874</v>
+        <v>120.9026283420858</v>
       </c>
       <c r="P31" t="n">
-        <v>208.2657720848874</v>
+        <v>120.9026283420858</v>
       </c>
       <c r="Q31" t="n">
-        <v>208.2657720848874</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="R31" t="n">
-        <v>208.2657720848874</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="S31" t="n">
         <v>210.0320876678294</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923733</v>
+        <v>980.0203689923725</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847834</v>
+        <v>832.5759473847825</v>
       </c>
       <c r="D32" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522878</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776836</v>
+        <v>531.8764201776828</v>
       </c>
       <c r="F32" t="n">
-        <v>343.7160714977722</v>
+        <v>343.7160714977715</v>
       </c>
       <c r="G32" t="n">
         <v>148.3684072267213</v>
@@ -6695,31 +6695,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>67.29938996034308</v>
+        <v>67.29938996034306</v>
       </c>
       <c r="J32" t="n">
-        <v>322.88141175434</v>
+        <v>148.7795367731728</v>
       </c>
       <c r="K32" t="n">
-        <v>385.3421263187572</v>
+        <v>211.24025133759</v>
       </c>
       <c r="L32" t="n">
-        <v>446.1674410542636</v>
+        <v>640.2152517856528</v>
       </c>
       <c r="M32" t="n">
-        <v>520.0673069860409</v>
+        <v>1058.916588657241</v>
       </c>
       <c r="N32" t="n">
-        <v>905.2365455732494</v>
+        <v>1487.891589105304</v>
       </c>
       <c r="O32" t="n">
-        <v>1160.118497717637</v>
+        <v>1558.898620831102</v>
       </c>
       <c r="P32" t="n">
-        <v>1331.661853393831</v>
+        <v>1617.922993678492</v>
       </c>
       <c r="Q32" t="n">
-        <v>1602.10933488906</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R32" t="n">
         <v>1708.184261141055</v>
@@ -6734,16 +6734,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.893828310192</v>
+        <v>1593.893828310191</v>
       </c>
       <c r="W32" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="33">
@@ -6753,55 +6753,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="R33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="S33" t="n">
         <v>78.59820166294293</v>
@@ -6819,10 +6819,10 @@
         <v>34.66464650085356</v>
       </c>
       <c r="X33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Y33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
     </row>
     <row r="34">
@@ -6838,52 +6838,52 @@
         <v>34.66464650085356</v>
       </c>
       <c r="D34" t="n">
-        <v>34.66464650085356</v>
+        <v>105.9541027560337</v>
       </c>
       <c r="E34" t="n">
-        <v>34.66464650085356</v>
+        <v>179.2541919291208</v>
       </c>
       <c r="F34" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="G34" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="H34" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="I34" t="n">
-        <v>107.1976275452858</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="J34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="K34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="L34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="M34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="N34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="O34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="P34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="Q34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="R34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="T34" t="n">
         <v>203.5032181935661</v>
@@ -6911,64 +6911,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767102</v>
+        <v>840.4904359767099</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585568</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154982</v>
+        <v>600.7728648154979</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303294</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398542</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G35" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H35" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I35" t="n">
         <v>83.7260301037939</v>
       </c>
       <c r="J35" t="n">
-        <v>361.2064541202873</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K35" t="n">
-        <v>445.5655709072009</v>
+        <v>445.5655709072008</v>
       </c>
       <c r="L35" t="n">
-        <v>528.2892878652037</v>
+        <v>528.2892878652036</v>
       </c>
       <c r="M35" t="n">
-        <v>624.0875560194775</v>
+        <v>624.0875560194772</v>
       </c>
       <c r="N35" t="n">
-        <v>722.0395713125185</v>
+        <v>722.0395713125183</v>
       </c>
       <c r="O35" t="n">
-        <v>827.8177102151301</v>
+        <v>814.9450052608125</v>
       </c>
       <c r="P35" t="n">
-        <v>1189.079654935004</v>
+        <v>970.4801405515652</v>
       </c>
       <c r="Q35" t="n">
-        <v>1262.826024269291</v>
+        <v>1262.82602426929</v>
       </c>
       <c r="R35" t="n">
         <v>1390.799352743782</v>
       </c>
       <c r="S35" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T35" t="n">
         <v>1459.644221090398</v>
       </c>
       <c r="U35" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V35" t="n">
         <v>1364.991781336784</v>
@@ -6980,7 +6980,7 @@
         <v>1127.494525631952</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.4921465821894</v>
+        <v>982.4921465821893</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="O36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="U36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="V36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.13486298451697</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C37" t="n">
-        <v>51.13486298451697</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D37" t="n">
-        <v>51.13486298451697</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E37" t="n">
-        <v>51.13486298451697</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F37" t="n">
-        <v>51.13486298451697</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P37" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="R37" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="S37" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="T37" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="U37" t="n">
-        <v>82.48530358384218</v>
+        <v>82.48530358384211</v>
       </c>
       <c r="V37" t="n">
-        <v>72.58466259902526</v>
+        <v>72.58466259902522</v>
       </c>
       <c r="W37" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X37" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="38">
@@ -7151,61 +7151,61 @@
         <v>840.49043597671</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585562</v>
+        <v>715.3890428585563</v>
       </c>
       <c r="D38" t="n">
-        <v>600.7728648154975</v>
+        <v>600.7728648154978</v>
       </c>
       <c r="E38" t="n">
-        <v>459.3755726303288</v>
+        <v>459.375572630329</v>
       </c>
       <c r="F38" t="n">
-        <v>293.5582524398535</v>
+        <v>293.5582524398538</v>
       </c>
       <c r="G38" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H38" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I38" t="n">
         <v>83.7260301037939</v>
       </c>
       <c r="J38" t="n">
-        <v>361.2064541202873</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K38" t="n">
-        <v>520.1779311280675</v>
+        <v>722.4683988401607</v>
       </c>
       <c r="L38" t="n">
-        <v>602.9016480860703</v>
+        <v>821.501162469508</v>
       </c>
       <c r="M38" t="n">
-        <v>698.6999162403439</v>
+        <v>917.2994306237816</v>
       </c>
       <c r="N38" t="n">
-        <v>796.651931533385</v>
+        <v>1015.251445916823</v>
       </c>
       <c r="O38" t="n">
-        <v>889.5573654816793</v>
+        <v>1108.156879865117</v>
       </c>
       <c r="P38" t="n">
-        <v>970.4801405515657</v>
+        <v>1189.079654935003</v>
       </c>
       <c r="Q38" t="n">
-        <v>1262.826024269291</v>
+        <v>1262.82602426929</v>
       </c>
       <c r="R38" t="n">
         <v>1390.799352743782</v>
       </c>
       <c r="S38" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T38" t="n">
         <v>1459.644221090398</v>
       </c>
       <c r="U38" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V38" t="n">
         <v>1364.991781336784</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="J39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="K39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="L39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="M39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="N39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="O39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="P39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="R39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="S39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="T39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="V39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L40" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="M40" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="N40" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="O40" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="P40" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="R40" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="S40" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="T40" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="U40" t="n">
-        <v>82.48530358384218</v>
+        <v>82.48530358384211</v>
       </c>
       <c r="V40" t="n">
-        <v>72.58466259902526</v>
+        <v>72.58466259902522</v>
       </c>
       <c r="W40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>840.4904359767104</v>
+        <v>840.4904359767106</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585565</v>
+        <v>715.3890428585568</v>
       </c>
       <c r="D41" t="n">
-        <v>600.772864815498</v>
+        <v>600.7728648154982</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303291</v>
+        <v>459.3755726303295</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398537</v>
+        <v>293.5582524398542</v>
       </c>
       <c r="G41" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I41" t="n">
-        <v>83.7260301037939</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J41" t="n">
         <v>361.2064541202873</v>
       </c>
       <c r="K41" t="n">
-        <v>520.1779311280675</v>
+        <v>445.5655709072009</v>
       </c>
       <c r="L41" t="n">
-        <v>602.9016480860703</v>
+        <v>528.2892878652037</v>
       </c>
       <c r="M41" t="n">
-        <v>698.6999162403439</v>
+        <v>624.0875560194773</v>
       </c>
       <c r="N41" t="n">
-        <v>796.651931533385</v>
+        <v>722.0395713125184</v>
       </c>
       <c r="O41" t="n">
-        <v>889.5573654816793</v>
+        <v>814.9450052608128</v>
       </c>
       <c r="P41" t="n">
-        <v>970.4801405515657</v>
+        <v>986.4883609370069</v>
       </c>
       <c r="Q41" t="n">
-        <v>1262.826024269291</v>
+        <v>1278.834244654732</v>
       </c>
       <c r="R41" t="n">
         <v>1390.799352743782</v>
       </c>
       <c r="S41" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T41" t="n">
         <v>1459.644221090398</v>
@@ -7454,7 +7454,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821898</v>
+        <v>982.49214658219</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="D42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="E42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="F42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="G42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="H42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="I42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="J42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="K42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="L42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="M42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="N42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="O42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="P42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="R42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="S42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="T42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="U42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="V42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="C43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="D43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="E43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="F43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="G43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="H43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="I43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="J43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="K43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="L43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="M43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="N43" t="n">
-        <v>29.19288442180796</v>
+        <v>91.61339917308175</v>
       </c>
       <c r="O43" t="n">
-        <v>29.19288442180796</v>
+        <v>125.825358883706</v>
       </c>
       <c r="P43" t="n">
-        <v>29.19288442180796</v>
+        <v>125.825358883706</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.19288442180796</v>
+        <v>125.825358883706</v>
       </c>
       <c r="R43" t="n">
-        <v>107.1337066978524</v>
+        <v>125.825358883706</v>
       </c>
       <c r="S43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="T43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="U43" t="n">
-        <v>82.48530358384218</v>
+        <v>82.48530358384205</v>
       </c>
       <c r="V43" t="n">
-        <v>72.58466259902526</v>
+        <v>72.58466259902519</v>
       </c>
       <c r="W43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767102</v>
+        <v>840.4904359767103</v>
       </c>
       <c r="C44" t="n">
         <v>715.3890428585564</v>
@@ -7631,7 +7631,7 @@
         <v>600.772864815498</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303292</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F44" t="n">
         <v>293.558252439854</v>
@@ -7640,46 +7640,46 @@
         <v>120.5536166582395</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I44" t="n">
-        <v>83.7260301037939</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J44" t="n">
         <v>361.2064541202873</v>
       </c>
       <c r="K44" t="n">
-        <v>445.5655709072009</v>
+        <v>619.0053357110348</v>
       </c>
       <c r="L44" t="n">
-        <v>528.2892878652037</v>
+        <v>701.7290526690376</v>
       </c>
       <c r="M44" t="n">
-        <v>624.0875560194775</v>
+        <v>797.5273208233112</v>
       </c>
       <c r="N44" t="n">
-        <v>796.651931533385</v>
+        <v>895.4793361163523</v>
       </c>
       <c r="O44" t="n">
-        <v>889.5573654816793</v>
+        <v>895.4793361163523</v>
       </c>
       <c r="P44" t="n">
-        <v>970.4801405515657</v>
+        <v>1256.741280836226</v>
       </c>
       <c r="Q44" t="n">
-        <v>1262.826024269291</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R44" t="n">
         <v>1390.799352743782</v>
       </c>
       <c r="S44" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T44" t="n">
         <v>1459.644221090398</v>
       </c>
       <c r="U44" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V44" t="n">
         <v>1364.991781336784</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C46" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D46" t="n">
-        <v>30.62686748812271</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="M46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="N46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="O46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="P46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="R46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="S46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="T46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="U46" t="n">
-        <v>82.48530358384218</v>
+        <v>82.48530358384205</v>
       </c>
       <c r="V46" t="n">
-        <v>72.58466259902526</v>
+        <v>72.58466259902519</v>
       </c>
       <c r="W46" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X46" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
   </sheetData>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>146.3687890634112</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>43.28982119960859</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8854,16 +8854,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>97.10985782952929</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>6.19399534817726</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1486090703221</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>65.99878736117168</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9085,19 +9085,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>132.8504734571315</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681482</v>
+        <v>145.2296382848381</v>
       </c>
       <c r="O16" t="n">
-        <v>106.751788516009</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P16" t="n">
         <v>110.1177504068044</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>66.12492402163895</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>434.3676631324684</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>358.661752036652</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>356.4862498762809</v>
+        <v>203.7993390452916</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P26" t="n">
-        <v>161.3945396537014</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065686</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>85.11220969290977</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O28" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>371.8683694066226</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M29" t="n">
-        <v>146.3687890634112</v>
+        <v>47.81309620201807</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>356.4862498762809</v>
       </c>
       <c r="O29" t="n">
-        <v>39.28993094066034</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065686</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P30" t="n">
-        <v>65.7500434632361</v>
+        <v>41.13309100520734</v>
       </c>
       <c r="Q30" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10279,10 +10279,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O31" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P31" t="n">
         <v>110.1177504068044</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>371.8683694066227</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>348.2843140806176</v>
       </c>
       <c r="N32" t="n">
-        <v>454.8408013884635</v>
+        <v>356.486249876281</v>
       </c>
       <c r="O32" t="n">
-        <v>185.7322428470605</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>90.54843224821536</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10516,10 +10516,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O34" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P34" t="n">
         <v>110.1177504068044</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.00273227708813</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>283.1708784343306</v>
+        <v>75.36602042511754</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10662,28 +10662,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065686</v>
+        <v>3.696982835019305</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955185</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>5.261872021638602</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10753,10 +10753,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O37" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P37" t="n">
         <v>110.1177504068044</v>
@@ -10823,10 +10823,10 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>75.36602042511777</v>
+        <v>279.699826194909</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>16.47378451650961</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10896,34 +10896,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>12.72986706821061</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346593</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175248</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P39" t="n">
-        <v>92.10601671059126</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q39" t="n">
-        <v>106.0581031398714</v>
+        <v>43.18062227866318</v>
       </c>
       <c r="R39" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10990,13 +10990,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>75.36602042511777</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
-        <v>68.34507666790174</v>
+        <v>52.17515708664756</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11133,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>67.03064369522724</v>
+        <v>24.21804766339996</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>90.33383297114742</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,22 +11218,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681482</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>175.1916816200343</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>75.36602042511761</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>283.1708784343303</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11370,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703221</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065686</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>83.34002595346593</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175248</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955185</v>
+        <v>73.06323650723334</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725111</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>36.26702084907536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.9274316525689983</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>165.2663860313839</v>
       </c>
       <c r="C11" t="n">
-        <v>148.5350717189315</v>
+        <v>80.13804573086151</v>
       </c>
       <c r="D11" t="n">
-        <v>69.75768280651731</v>
+        <v>69.75768280651727</v>
       </c>
       <c r="E11" t="n">
         <v>164.6680117952763</v>
       </c>
       <c r="F11" t="n">
-        <v>120.4468135324598</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G11" t="n">
-        <v>195.9592819557577</v>
+        <v>138.2802757928832</v>
       </c>
       <c r="H11" t="n">
-        <v>90.44491414064026</v>
+        <v>46.73479145795653</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.9921028574883</v>
       </c>
       <c r="V11" t="n">
         <v>110.0831975625082</v>
       </c>
       <c r="W11" t="n">
-        <v>132.0800930405435</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="X11" t="n">
-        <v>84.01454918308831</v>
+        <v>152.4115751711582</v>
       </c>
       <c r="Y11" t="n">
         <v>168.2370477912247</v>
@@ -23495,22 +23495,22 @@
         <v>165.2663860313839</v>
       </c>
       <c r="C14" t="n">
-        <v>80.13804573086152</v>
+        <v>148.5350717189315</v>
       </c>
       <c r="D14" t="n">
-        <v>138.1547087945872</v>
+        <v>69.75768280651732</v>
       </c>
       <c r="E14" t="n">
         <v>164.6680117952763</v>
       </c>
       <c r="F14" t="n">
-        <v>188.8438395205297</v>
+        <v>164.1569362151436</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5622559676877</v>
+        <v>127.5622559676878</v>
       </c>
       <c r="H14" t="n">
-        <v>115.1318174460265</v>
+        <v>46.7347914579566</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.9921028574883</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>110.0831975625082</v>
@@ -23558,10 +23558,10 @@
         <v>132.0800930405434</v>
       </c>
       <c r="X14" t="n">
-        <v>94.73256900828363</v>
+        <v>152.4115751711582</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.8400218031547</v>
+        <v>168.2370477912247</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60911.72833168052</v>
+        <v>60911.72833168054</v>
       </c>
       <c r="C2" t="n">
+        <v>60911.72833168056</v>
+      </c>
+      <c r="D2" t="n">
         <v>60911.72833168054</v>
       </c>
-      <c r="D2" t="n">
-        <v>60911.72833168053</v>
-      </c>
       <c r="E2" t="n">
+        <v>52390.482140257</v>
+      </c>
+      <c r="F2" t="n">
         <v>52390.48214025697</v>
       </c>
-      <c r="F2" t="n">
-        <v>52390.48214025696</v>
-      </c>
       <c r="G2" t="n">
-        <v>61043.95564612023</v>
+        <v>61043.95564612022</v>
       </c>
       <c r="H2" t="n">
-        <v>61043.95564612023</v>
+        <v>61043.95564612024</v>
       </c>
       <c r="I2" t="n">
         <v>61043.95564612023</v>
       </c>
       <c r="J2" t="n">
-        <v>61043.95564612018</v>
+        <v>61043.95564612017</v>
       </c>
       <c r="K2" t="n">
-        <v>61043.95564612018</v>
+        <v>61043.95564612019</v>
       </c>
       <c r="L2" t="n">
         <v>61043.95564612018</v>
       </c>
       <c r="M2" t="n">
+        <v>61043.95564612022</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61043.95564612021</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61043.9556461202</v>
+      </c>
+      <c r="P2" t="n">
         <v>61043.95564612019</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61043.95564612022</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61043.95564612021</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61043.95564612022</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.3843039992</v>
+        <v>284205.3843039991</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>105664.0744324347</v>
@@ -26396,13 +26396,13 @@
         <v>105664.0744324347</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363346</v>
+        <v>17695.67856363349</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750814</v>
+        <v>71148.02019750816</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>361458.676015374</v>
+        <v>361458.6760153741</v>
       </c>
       <c r="F4" t="n">
         <v>361458.6760153741</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983837</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983837</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="I4" t="n">
-        <v>426193.4292983837</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444277</v>
+        <v>434774.7393444278</v>
       </c>
       <c r="K4" t="n">
-        <v>434774.7393444277</v>
+        <v>434774.7393444278</v>
       </c>
       <c r="L4" t="n">
         <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="N4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="O4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>24939.02968325745</v>
       </c>
       <c r="F5" t="n">
-        <v>24939.02968325745</v>
+        <v>24939.02968325744</v>
       </c>
       <c r="G5" t="n">
         <v>36042.87102508289</v>
@@ -26491,7 +26491,7 @@
         <v>36042.87102508289</v>
       </c>
       <c r="J5" t="n">
-        <v>47341.26675884316</v>
+        <v>47341.26675884315</v>
       </c>
       <c r="K5" t="n">
         <v>47341.26675884315</v>
@@ -26500,16 +26500,16 @@
         <v>47341.26675884315</v>
       </c>
       <c r="M5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="N5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-436267.9923040111</v>
+        <v>-436272.3998811591</v>
       </c>
       <c r="C6" t="n">
-        <v>-436267.9923040111</v>
+        <v>-436272.399881159</v>
       </c>
       <c r="D6" t="n">
-        <v>-436267.9923040111</v>
+        <v>-436272.3998811591</v>
       </c>
       <c r="E6" t="n">
-        <v>-618212.6078623737</v>
+        <v>-618501.0569792358</v>
       </c>
       <c r="F6" t="n">
-        <v>-334007.2235583746</v>
+        <v>-334295.6726752367</v>
       </c>
       <c r="G6" t="n">
-        <v>-506856.4191097811</v>
+        <v>-506856.4191097812</v>
       </c>
       <c r="H6" t="n">
         <v>-401192.3446773464</v>
@@ -26543,7 +26543,7 @@
         <v>-401192.3446773464</v>
       </c>
       <c r="J6" t="n">
-        <v>-587696.858800403</v>
+        <v>-587696.8588004028</v>
       </c>
       <c r="K6" t="n">
         <v>-421072.0504571507</v>
@@ -26555,10 +26555,10 @@
         <v>-432756.8599591167</v>
       </c>
       <c r="N6" t="n">
-        <v>-415061.1813954831</v>
+        <v>-415061.1813954832</v>
       </c>
       <c r="O6" t="n">
-        <v>-486209.2015929912</v>
+        <v>-486209.2015929914</v>
       </c>
       <c r="P6" t="n">
         <v>-415061.1813954832</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="F2" t="n">
         <v>218.4500239600112</v>
@@ -26722,10 +26722,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="O2" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="P2" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="F3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="G3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="H3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="I3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="J3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="K3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="L3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="M3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="N3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="O3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="P3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806996</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="F4" t="n">
-        <v>68.39702598806996</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="G4" t="n">
+        <v>68.39702598806993</v>
+      </c>
+      <c r="H4" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="H4" t="n">
-        <v>68.39702598806993</v>
-      </c>
       <c r="I4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="J4" t="n">
-        <v>433.3080812606695</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="K4" t="n">
         <v>433.3080812606695</v>
@@ -26820,16 +26820,16 @@
         <v>433.3080812606695</v>
       </c>
       <c r="M4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="N4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="O4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="P4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>132.0800930405434</v>
@@ -26938,13 +26938,13 @@
         <v>132.0800930405434</v>
       </c>
       <c r="M2" t="n">
-        <v>22.11959820454183</v>
+        <v>22.11959820454186</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688517</v>
+        <v>88.9350252468852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554411</v>
+        <v>110.808047655441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806996</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>132.0800930405434</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806996</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="C11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="D11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="E11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="F11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="G11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="H11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="I11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
-        <v>138.7119396886106</v>
+        <v>207.1089656766806</v>
       </c>
       <c r="K11" t="n">
-        <v>218.4500239600111</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>150.743651191269</v>
       </c>
       <c r="N11" t="n">
-        <v>206.2452280971227</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O11" t="n">
-        <v>149.2908438169256</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P11" t="n">
         <v>161.3945396537014</v>
       </c>
       <c r="Q11" t="n">
-        <v>168.6434343361249</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="R11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="T11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="U11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="V11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="W11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="X11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
     </row>
     <row r="12">
@@ -28178,7 +28178,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>195.7350889274639</v>
       </c>
       <c r="G12" t="n">
         <v>135.7848683666891</v>
@@ -28187,28 +28187,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I12" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065686</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346593</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>130.4191539456672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>66.06942948955185</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725111</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>85.11220969290977</v>
+        <v>41.82238849330123</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
@@ -28223,13 +28223,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U12" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="V12" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="W12" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>218.4500239600111</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>218.4500239600111</v>
+        <v>167.462249207155</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
@@ -28263,13 +28263,13 @@
         <v>167.689771139254</v>
       </c>
       <c r="H13" t="n">
-        <v>218.4500239600111</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I13" t="n">
-        <v>147.7494808688102</v>
+        <v>216.1465068568802</v>
       </c>
       <c r="J13" t="n">
-        <v>152.5842598568372</v>
+        <v>178.0904440780982</v>
       </c>
       <c r="K13" t="n">
         <v>102.5727324697714</v>
@@ -28278,43 +28278,43 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P13" t="n">
-        <v>13.00789257727508</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q13" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R13" t="n">
-        <v>164.4066131828346</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S13" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="U13" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="V13" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="W13" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="X13" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
     </row>
     <row r="14">
@@ -28348,22 +28348,22 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J14" t="n">
-        <v>167.6419153574743</v>
+        <v>207.1089656766806</v>
       </c>
       <c r="K14" t="n">
         <v>157.9234874142799</v>
       </c>
       <c r="L14" t="n">
-        <v>159.5754064333817</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M14" t="n">
         <v>146.3687890634112</v>
       </c>
       <c r="N14" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O14" t="n">
-        <v>217.6878698049956</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P14" t="n">
         <v>218.4500239600112</v>
@@ -28375,7 +28375,7 @@
         <v>218.4500239600112</v>
       </c>
       <c r="S14" t="n">
-        <v>195.7140436393247</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="T14" t="n">
         <v>218.4500239600112</v>
@@ -28418,37 +28418,37 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>188.0137252106038</v>
+        <v>135.7848683666891</v>
       </c>
       <c r="H15" t="n">
         <v>108.160635135932</v>
       </c>
       <c r="I15" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065686</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L15" t="n">
-        <v>83.34002595346593</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175248</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955185</v>
+        <v>118.2982863334666</v>
       </c>
       <c r="O15" t="n">
-        <v>16.32496454607943</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P15" t="n">
-        <v>85.11220969290977</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R15" t="n">
         <v>127.2394152081628</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>218.4500239600112</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
@@ -28506,16 +28506,16 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J16" t="n">
-        <v>125.49619267383</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K16" t="n">
-        <v>170.9697584578413</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>101.8051034503207</v>
+        <v>37.35165598125914</v>
       </c>
       <c r="M16" t="n">
-        <v>172.527318357923</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28582,25 +28582,25 @@
         <v>350.5301170005546</v>
       </c>
       <c r="I17" t="n">
-        <v>256.4477569426808</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J17" t="n">
-        <v>165.4002784025901</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K17" t="n">
         <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333817</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M17" t="n">
         <v>146.3687890634112</v>
       </c>
       <c r="N17" t="n">
-        <v>144.19328690304</v>
+        <v>212.59031289111</v>
       </c>
       <c r="O17" t="n">
-        <v>149.2908438169256</v>
+        <v>217.6878698049957</v>
       </c>
       <c r="P17" t="n">
         <v>161.3945396537014</v>
@@ -28615,7 +28615,7 @@
         <v>195.7140436393247</v>
       </c>
       <c r="T17" t="n">
-        <v>289.4121442754985</v>
+        <v>247.7034570014082</v>
       </c>
       <c r="U17" t="n">
         <v>319.8391528055694</v>
@@ -28661,28 +28661,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I18" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065686</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346593</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175248</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955185</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P18" t="n">
-        <v>85.11220969290977</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
@@ -28755,10 +28755,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O19" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P19" t="n">
         <v>110.1177504068044</v>
@@ -28828,28 +28828,28 @@
         <v>157.9234874142799</v>
       </c>
       <c r="L20" t="n">
-        <v>208.2606406253965</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M20" t="n">
         <v>146.3687890634112</v>
       </c>
       <c r="N20" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O20" t="n">
-        <v>149.2908438169256</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P20" t="n">
         <v>161.3945396537014</v>
       </c>
       <c r="Q20" t="n">
-        <v>237.0404603241948</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R20" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898695</v>
       </c>
       <c r="S20" t="n">
-        <v>195.7140436393247</v>
+        <v>222.4023823533042</v>
       </c>
       <c r="T20" t="n">
         <v>289.4121442754985</v>
@@ -28858,7 +28858,7 @@
         <v>319.8391528055694</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -28898,28 +28898,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I21" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065686</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346593</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175248</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955185</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P21" t="n">
-        <v>85.11220969290977</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
@@ -28992,10 +28992,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O22" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P22" t="n">
         <v>110.1177504068044</v>
@@ -29065,31 +29065,31 @@
         <v>157.9234874142799</v>
       </c>
       <c r="L23" t="n">
-        <v>159.5754064333817</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M23" t="n">
         <v>146.3687890634112</v>
       </c>
       <c r="N23" t="n">
-        <v>144.19328690304</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O23" t="n">
-        <v>149.2908438169256</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P23" t="n">
         <v>161.3945396537014</v>
       </c>
       <c r="Q23" t="n">
-        <v>168.6434343361249</v>
+        <v>237.0404603241948</v>
       </c>
       <c r="R23" t="n">
-        <v>225.850419110296</v>
+        <v>250.6108307898695</v>
       </c>
       <c r="S23" t="n">
-        <v>264.1110696273947</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T23" t="n">
-        <v>289.4121442754985</v>
+        <v>264.6517325959252</v>
       </c>
       <c r="U23" t="n">
         <v>319.8391528055694</v>
@@ -29135,28 +29135,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I24" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065686</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346593</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175248</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955185</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P24" t="n">
-        <v>85.11220969290977</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
@@ -29229,10 +29229,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O25" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P25" t="n">
         <v>110.1177504068044</v>
@@ -29302,7 +29302,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="L26" t="n">
-        <v>141.6340412176356</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="M26" t="n">
         <v>221.0151182874286</v>
@@ -29311,13 +29311,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="O26" t="n">
+        <v>78.41232247135292</v>
+      </c>
+      <c r="P26" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>221.0151182874286</v>
@@ -29357,7 +29357,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>190.4897520212004</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -29372,28 +29372,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>133.2055812664112</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346593</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175248</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955185</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.11220969290983</v>
       </c>
       <c r="Q27" t="n">
         <v>106.0581031398714</v>
@@ -29433,13 +29433,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>209.277280186823</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
@@ -29448,13 +29448,13 @@
         <v>167.689771139254</v>
       </c>
       <c r="H28" t="n">
-        <v>159.857510195687</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="I28" t="n">
         <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
-        <v>221.0151182874286</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>175.9348796709955</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>130.9853613927381</v>
@@ -29539,10 +29539,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>221.0151182874286</v>
@@ -29591,10 +29591,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>215.4029123739558</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>190.4897520212004</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
@@ -29609,31 +29609,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346593</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175248</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955185</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725111</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19.36216622967368</v>
+        <v>43.97911868770249</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
         <v>127.2394152081628</v>
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>221.0151182874286</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>201.120278349929</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -29682,13 +29682,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.689771139254</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="H31" t="n">
-        <v>221.0151182874286</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I31" t="n">
-        <v>221.0151182874286</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
         <v>109.6934180900282</v>
@@ -29712,13 +29712,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.9853613927381</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R31" t="n">
         <v>164.4066131828346</v>
       </c>
       <c r="S31" t="n">
-        <v>220.6592849789343</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T31" t="n">
         <v>221.0151182874286</v>
@@ -29782,13 +29782,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="N32" t="n">
-        <v>78.41232247135281</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="O32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Q32" t="n">
         <v>221.0151182874286</v>
@@ -29834,7 +29834,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>183.8572734747784</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -29846,37 +29846,37 @@
         <v>108.160635135932</v>
       </c>
       <c r="I33" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703221</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065686</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>83.34002595346593</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175248</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955185</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725111</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>85.11220969290977</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.0581031398714</v>
+        <v>15.50967089165604</v>
       </c>
       <c r="R33" t="n">
         <v>127.2394152081628</v>
       </c>
       <c r="S33" t="n">
-        <v>164.5345187941275</v>
+        <v>208.9118472406824</v>
       </c>
       <c r="T33" t="n">
         <v>197.4218470422748</v>
@@ -29891,7 +29891,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="X33" t="n">
-        <v>221.0151182874286</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -29910,13 +29910,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>177.2478049842578</v>
       </c>
       <c r="G34" t="n">
         <v>167.689771139254</v>
@@ -29925,10 +29925,10 @@
         <v>159.857510195687</v>
       </c>
       <c r="I34" t="n">
-        <v>221.0151182874286</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J34" t="n">
-        <v>213.5666101330017</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30083,31 +30083,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>88.82825281985647</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J36" t="n">
-        <v>108.1424160880036</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>92.21144006563759</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346593</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175248</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>73.06323650723337</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P36" t="n">
-        <v>79.85033767127118</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R36" t="n">
         <v>127.2394152081628</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>202.2473062004909</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -30156,7 +30156,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>243.1347164919704</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H37" t="n">
         <v>159.857510195687</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.9853613927381</v>
+        <v>228.5939214552615</v>
       </c>
       <c r="R37" t="n">
         <v>164.4066131828346</v>
@@ -30320,22 +30320,22 @@
         <v>108.160635135932</v>
       </c>
       <c r="I39" t="n">
-        <v>78.29747578532815</v>
+        <v>95.82205983753795</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703221</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K39" t="n">
-        <v>83.17855583244625</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955185</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>62.87748086120822</v>
       </c>
       <c r="R39" t="n">
-        <v>79.8968786043891</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S39" t="n">
         <v>164.5345187941275</v>
@@ -30408,7 +30408,7 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L40" t="n">
-        <v>101.8051034503207</v>
+        <v>199.4136635128442</v>
       </c>
       <c r="M40" t="n">
         <v>104.1302923698531</v>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>228.5939214552616</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R40" t="n">
         <v>164.4066131828346</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="C41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="D41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="E41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="F41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="G41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="H41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="I41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="J41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="K41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="L41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="M41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="N41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="O41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="P41" t="n">
-        <v>243.1347164919704</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="R41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="S41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="U41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Y41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
     </row>
     <row r="42">
@@ -30539,7 +30539,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>178.0193909450824</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -30557,34 +30557,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>78.29747578532815</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J42" t="n">
-        <v>34.11796537509489</v>
+        <v>76.93056140692219</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065686</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175248</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955185</v>
+        <v>66.06942948955191</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P42" t="n">
-        <v>85.11220969290977</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R42" t="n">
-        <v>79.8968786043891</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S42" t="n">
         <v>164.5345187941275</v>
@@ -30599,7 +30599,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -30642,43 +30642,43 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>141.3093235772457</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q43" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R43" t="n">
-        <v>243.1347164919704</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S43" t="n">
-        <v>237.7555845778351</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T43" t="n">
         <v>227.4786990669493</v>
       </c>
       <c r="U43" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V43" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W43" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="C44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="D44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="E44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="F44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="G44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="H44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="I44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="J44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="K44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="L44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="M44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="N44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="O44" t="n">
-        <v>243.1347164919704</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Q44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="R44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="S44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="U44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Y44" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
     </row>
     <row r="45">
@@ -30782,7 +30782,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>163.0272407248553</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
@@ -30794,34 +30794,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>78.29747578532815</v>
+        <v>88.82825281985649</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>95.90842290065689</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>83.34002595346597</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>78.19029710175253</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>82.32375190725116</v>
       </c>
       <c r="P45" t="n">
-        <v>85.11220969290977</v>
+        <v>48.84518884383446</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.1306714873024</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
-        <v>79.8968786043891</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
@@ -30836,7 +30836,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -30858,10 +30858,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>150.4540342582716</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>243.1347164919704</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -30882,16 +30882,16 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503207</v>
+        <v>199.413663512844</v>
       </c>
       <c r="M46" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681482</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O46" t="n">
-        <v>106.751788516009</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P46" t="n">
         <v>110.1177504068044</v>
@@ -30909,13 +30909,13 @@
         <v>227.4786990669493</v>
       </c>
       <c r="U46" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V46" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W46" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H11" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J11" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O11" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T11" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J12" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R12" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H13" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J13" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K13" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R13" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S13" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H14" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J14" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O14" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T14" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J15" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R15" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H16" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J16" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K16" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R16" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S16" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H17" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J17" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O17" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T17" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J18" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R18" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H19" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J19" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K19" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R19" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S19" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H20" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J20" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O20" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T20" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J21" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R21" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H22" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J22" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K22" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R22" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S22" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H23" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J23" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O23" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T23" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J24" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R24" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H25" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K25" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R25" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S25" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H26" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J26" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O26" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T26" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J27" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R27" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H28" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J28" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K28" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R28" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S28" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H29" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J29" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O29" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T29" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J30" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R30" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H31" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J31" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K31" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R31" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S31" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H32" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J32" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O32" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T32" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J33" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R33" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H34" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J34" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K34" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R34" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S34" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H35" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J35" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O35" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T35" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J36" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R36" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H37" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J37" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K37" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R37" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S37" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H38" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J38" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O38" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T38" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J39" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R39" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H40" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J40" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K40" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R40" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S40" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H41" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J41" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O41" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T41" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J42" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R42" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H43" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J43" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K43" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R43" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S43" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620744</v>
+        <v>0.445459488062074</v>
       </c>
       <c r="H44" t="n">
-        <v>4.56206198211572</v>
+        <v>4.562061982115717</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351314</v>
+        <v>17.17357691351312</v>
       </c>
       <c r="J44" t="n">
-        <v>37.80781722490852</v>
+        <v>37.80781722490848</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457614</v>
+        <v>56.66411735457609</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235586</v>
+        <v>70.2968481623558</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317977</v>
+        <v>78.2187883331797</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363615</v>
+        <v>79.48445010363608</v>
       </c>
       <c r="O44" t="n">
-        <v>75.0549123192189</v>
+        <v>75.05491231921883</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768643</v>
+        <v>64.05763120768637</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146337</v>
+        <v>48.10461329146332</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697928</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421453</v>
+        <v>10.15090808421452</v>
       </c>
       <c r="T44" t="n">
-        <v>1.949998908991732</v>
+        <v>1.94999890899173</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496594</v>
+        <v>0.03563675904496591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2383418383532129</v>
+        <v>0.2383418383532127</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200767</v>
+        <v>2.301880386200765</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143516</v>
+        <v>8.206067680143509</v>
       </c>
       <c r="J45" t="n">
-        <v>22.5180769296779</v>
+        <v>22.51807692967787</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934316</v>
+        <v>38.48698009934312</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191143</v>
+        <v>51.75049433191138</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221538</v>
+        <v>60.39038597221533</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169812</v>
+        <v>61.98873979169807</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608219</v>
+        <v>56.70758642608214</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606221</v>
+        <v>45.51283753606217</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.4241265939996</v>
+        <v>30.42412659399957</v>
       </c>
       <c r="R45" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670211</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516908</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938709</v>
+        <v>0.9606848659938702</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218506</v>
+        <v>0.01568038410218505</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540741</v>
+        <v>0.1998177908540739</v>
       </c>
       <c r="H46" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229858</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593429</v>
+        <v>6.009065928593424</v>
       </c>
       <c r="J46" t="n">
-        <v>14.12711781338304</v>
+        <v>14.12711781338302</v>
       </c>
       <c r="K46" t="n">
-        <v>23.2151942465006</v>
+        <v>23.21519424650058</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388659</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906181</v>
+        <v>31.32234697906178</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678753</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453768</v>
+        <v>28.24333647453765</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111455</v>
+        <v>24.16705354111453</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.7320151959716</v>
+        <v>16.73201519597159</v>
       </c>
       <c r="R46" t="n">
-        <v>8.984534486947728</v>
+        <v>8.98453448694772</v>
       </c>
       <c r="S46" t="n">
-        <v>3.48227913697509</v>
+        <v>3.482279136975087</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583163</v>
+        <v>0.8537669245583155</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840404</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,22 +35404,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39929300540025</v>
+        <v>30.39929300540026</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="K11" t="n">
-        <v>60.52653654573123</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>58.87461752662942</v>
+        <v>58.87461752662939</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.374862127857792</v>
       </c>
       <c r="N11" t="n">
-        <v>62.05194119408268</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35428,13 +35428,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>49.80658962388623</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821162</v>
+        <v>36.23621915821163</v>
       </c>
       <c r="S11" t="n">
-        <v>22.73598032068642</v>
+        <v>22.73598032068644</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35474,7 +35474,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>52.22885684391464</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>52.22885684391473</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35541,10 +35541,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.36633246932732</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>51.11347102880879</v>
+        <v>0.1256962759526259</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35559,13 +35559,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>58.59251376432415</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="J13" t="n">
-        <v>42.89084176680908</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.04341077717658</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,10 +35641,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.39929300540027</v>
+        <v>30.39929300540026</v>
       </c>
       <c r="J14" t="n">
-        <v>28.92997566886369</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35659,19 +35659,19 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>68.39702598806996</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>57.05548430630978</v>
+        <v>57.05548430630972</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.80658962388627</v>
+        <v>56.00058497206349</v>
       </c>
       <c r="R14" t="n">
-        <v>36.23621915821165</v>
+        <v>36.23621915821163</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>22.73598032068644</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35714,7 +35714,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>52.22885684391464</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>52.22885684391465</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.36633246932735</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.80277458380188</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>68.39702598806996</v>
+        <v>8.44078452866723</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="M16" t="n">
-        <v>68.39702598806996</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>51.31380400802328</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>62.81154450450872</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35875,13 +35875,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.94827559451693</v>
+        <v>16.94827559451692</v>
       </c>
       <c r="I17" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>26.68833871397953</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35893,10 +35893,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35911,10 +35911,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>68.39702598806991</v>
+        <v>26.68833871397954</v>
       </c>
       <c r="U17" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="V17" t="n">
         <v>21.99689547803524</v>
@@ -36112,7 +36112,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.94827559451693</v>
+        <v>16.94827559451692</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.68523419201481</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36139,22 +36139,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>26.68833871397953</v>
       </c>
       <c r="T20" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="U20" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36376,19 +36376,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="R23" t="n">
-        <v>43.63661430849648</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="S23" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>68.39702598806993</v>
+        <v>43.63661430849652</v>
       </c>
       <c r="U23" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="V23" t="n">
         <v>21.99689547803524</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.96438733281776</v>
+        <v>32.96438733281772</v>
       </c>
       <c r="J26" t="n">
-        <v>82.30317859881802</v>
+        <v>82.30317859881796</v>
       </c>
       <c r="K26" t="n">
-        <v>129.2165548947877</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L26" t="n">
-        <v>416.4262979167223</v>
+        <v>61.43971185404685</v>
       </c>
       <c r="M26" t="n">
-        <v>433.3080812606695</v>
+        <v>74.64632922401739</v>
       </c>
       <c r="N26" t="n">
-        <v>433.3080812606695</v>
+        <v>280.6211704296801</v>
       </c>
       <c r="O26" t="n">
-        <v>71.72427447050298</v>
+        <v>325.1536671676823</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>394.2912351320691</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.37168395130375</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>38.80131348562913</v>
+        <v>38.80131348562908</v>
       </c>
       <c r="S26" t="n">
-        <v>25.30107464810393</v>
+        <v>25.30107464810389</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36653,7 +36653,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>44.37732844655475</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36729,13 +36729,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>41.9407272556207</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>74.04049411422943</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36744,13 +36744,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>61.15760809174164</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>111.3217001974005</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>65.81712926419114</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281773</v>
+        <v>32.96438733281772</v>
       </c>
       <c r="J29" t="n">
-        <v>82.30317859881799</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K29" t="n">
         <v>400.2028599471601</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>122.4594254260355</v>
+      </c>
+      <c r="N29" t="n">
         <v>433.3080812606695</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>76.8218313843886</v>
-      </c>
       <c r="O29" t="n">
-        <v>111.0142054111633</v>
+        <v>71.72427447050288</v>
       </c>
       <c r="P29" t="n">
-        <v>394.2912351320692</v>
+        <v>59.62057863372718</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.37168395130372</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1463901535308</v>
+        <v>38.80131348562908</v>
       </c>
       <c r="S29" t="n">
-        <v>25.3010746481039</v>
+        <v>25.30107464810389</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36887,10 +36887,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -36963,10 +36963,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.9314267967448</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.78372541872664</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>53.32534714817462</v>
       </c>
       <c r="H31" t="n">
-        <v>61.15760809174164</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>73.26563741861841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37008,13 +37008,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>90.02975689469049</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.784157154486882</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.9643873328177</v>
+        <v>32.96438733281769</v>
       </c>
       <c r="J32" t="n">
-        <v>258.1636583777747</v>
+        <v>82.30317859881794</v>
       </c>
       <c r="K32" t="n">
-        <v>63.09163087314868</v>
+        <v>63.09163087314863</v>
       </c>
       <c r="L32" t="n">
-        <v>61.43971185404688</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="M32" t="n">
-        <v>74.64632922401744</v>
+        <v>422.930643304635</v>
       </c>
       <c r="N32" t="n">
-        <v>389.0598369567763</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="O32" t="n">
-        <v>257.4565173175635</v>
+        <v>71.72427447050285</v>
       </c>
       <c r="P32" t="n">
-        <v>173.2761168446406</v>
+        <v>59.62057863372715</v>
       </c>
       <c r="Q32" t="n">
-        <v>273.1792742376045</v>
+        <v>52.37168395130365</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1463901535308</v>
+        <v>38.80131348562905</v>
       </c>
       <c r="S32" t="n">
-        <v>25.30107464810387</v>
+        <v>25.30107464810386</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37130,7 +37130,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>27.82383976760461</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -37172,7 +37172,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>44.37732844655492</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37187,7 +37187,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>16.55348867895032</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>72.00955177290922</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>74.0404941142294</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>31.0887835744533</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,10 +37221,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>73.26563741861838</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.8731920429735</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.08398553735953</v>
+        <v>55.08398553735955</v>
       </c>
       <c r="J35" t="n">
         <v>280.2832565823165</v>
       </c>
       <c r="K35" t="n">
-        <v>85.21122907769052</v>
+        <v>85.21122907769049</v>
       </c>
       <c r="L35" t="n">
-        <v>83.55931005858871</v>
+        <v>83.55931005858868</v>
       </c>
       <c r="M35" t="n">
-        <v>96.76592742855927</v>
+        <v>96.76592742855922</v>
       </c>
       <c r="N35" t="n">
-        <v>98.9414295889304</v>
+        <v>98.94142958893036</v>
       </c>
       <c r="O35" t="n">
-        <v>106.8466049521329</v>
+        <v>93.84387267504471</v>
       </c>
       <c r="P35" t="n">
-        <v>364.9110552725995</v>
+        <v>157.1061972633865</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.49128215584552</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R35" t="n">
         <v>129.2659883580726</v>
       </c>
       <c r="S35" t="n">
-        <v>47.4206728526457</v>
+        <v>47.42067285264572</v>
       </c>
       <c r="T35" t="n">
-        <v>22.11959820454179</v>
+        <v>22.11959820454182</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>6.993807017681466</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22.16361470980708</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>75.44494535271642</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.60856006252341</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735953</v>
+        <v>55.08398553735955</v>
       </c>
       <c r="J38" t="n">
         <v>280.2832565823165</v>
       </c>
       <c r="K38" t="n">
-        <v>160.5772495028083</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="L38" t="n">
-        <v>83.55931005858871</v>
+        <v>100.0330945750983</v>
       </c>
       <c r="M38" t="n">
-        <v>96.76592742855927</v>
+        <v>96.76592742855922</v>
       </c>
       <c r="N38" t="n">
-        <v>98.9414295889304</v>
+        <v>98.94142958893036</v>
       </c>
       <c r="O38" t="n">
-        <v>93.84387267504475</v>
+        <v>93.84387267504471</v>
       </c>
       <c r="P38" t="n">
-        <v>81.74017683826904</v>
+        <v>81.74017683826901</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.2988724421464</v>
+        <v>74.49128215584551</v>
       </c>
       <c r="R38" t="n">
         <v>129.2659883580726</v>
       </c>
       <c r="S38" t="n">
-        <v>47.4206728526457</v>
+        <v>47.42067285264572</v>
       </c>
       <c r="T38" t="n">
-        <v>22.11959820454179</v>
+        <v>22.11959820454182</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.993807017681466</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>97.60856006252341</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.60856006252351</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735953</v>
+        <v>55.08398553735957</v>
       </c>
       <c r="J41" t="n">
         <v>280.2832565823165</v>
       </c>
       <c r="K41" t="n">
-        <v>160.5772495028083</v>
+        <v>85.21122907769052</v>
       </c>
       <c r="L41" t="n">
         <v>83.55931005858871</v>
       </c>
       <c r="M41" t="n">
-        <v>96.76592742855927</v>
+        <v>96.76592742855925</v>
       </c>
       <c r="N41" t="n">
-        <v>98.9414295889304</v>
+        <v>98.94142958893039</v>
       </c>
       <c r="O41" t="n">
-        <v>93.84387267504475</v>
+        <v>93.84387267504474</v>
       </c>
       <c r="P41" t="n">
-        <v>81.74017683826904</v>
+        <v>173.2761168446405</v>
       </c>
       <c r="Q41" t="n">
         <v>295.2988724421464</v>
       </c>
       <c r="R41" t="n">
-        <v>129.2659883580726</v>
+        <v>113.0960687768185</v>
       </c>
       <c r="S41" t="n">
-        <v>47.4206728526457</v>
+        <v>47.42067285264575</v>
       </c>
       <c r="T41" t="n">
-        <v>22.11959820454179</v>
+        <v>22.11959820454184</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37835,7 +37835,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>6.993807017681437</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>63.05102500128666</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>34.55753506123665</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37959,10 +37959,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.72810330913583</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.88045675338767</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.08398553735953</v>
+        <v>55.08398553735957</v>
       </c>
       <c r="J44" t="n">
         <v>280.2832565823165</v>
       </c>
       <c r="K44" t="n">
-        <v>85.21122907769052</v>
+        <v>260.4029106977248</v>
       </c>
       <c r="L44" t="n">
         <v>83.55931005858871</v>
       </c>
       <c r="M44" t="n">
-        <v>96.76592742855927</v>
+        <v>96.76592742855925</v>
       </c>
       <c r="N44" t="n">
-        <v>174.307450014048</v>
+        <v>98.94142958893039</v>
       </c>
       <c r="O44" t="n">
-        <v>93.84387267504475</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>81.74017683826904</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.2988724421464</v>
+        <v>74.49128215584554</v>
       </c>
       <c r="R44" t="n">
-        <v>129.2659883580726</v>
+        <v>60.92091169017094</v>
       </c>
       <c r="S44" t="n">
-        <v>47.4206728526457</v>
+        <v>47.42067285264575</v>
       </c>
       <c r="T44" t="n">
-        <v>22.11959820454179</v>
+        <v>22.11959820454184</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38078,7 +38078,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>6.993807017681437</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38154,10 +38154,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.448467743752271</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>96.16009231877123</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.60856006252332</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
